--- a/raw_stimuli/AgreementAttraction_Experiment.xlsx
+++ b/raw_stimuli/AgreementAttraction_Experiment.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/utku/Documents/GitHub/AgreementAttraction_Experiment/raw_stimuli/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBE3862-05F4-1F4A-9944-382280CDFBBE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="700" yWindow="460" windowWidth="32900" windowHeight="20540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="experimental" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="filler_pl_gram" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="filler_sg_ungram" sheetId="3" r:id="rId5"/>
+    <sheet name="experimental" sheetId="1" r:id="rId1"/>
+    <sheet name="filler_pl_gram" sheetId="2" r:id="rId2"/>
+    <sheet name="filler_sg_ungram" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="480">
   <si>
     <t>gen</t>
   </si>
@@ -30,12 +39,6 @@
     <t>obj</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>verb</t>
-  </si>
-  <si>
     <t>Adamın</t>
   </si>
   <si>
@@ -342,12 +345,6 @@
     <t>makine</t>
   </si>
   <si>
-    <t>adv</t>
-  </si>
-  <si>
-    <t>mv</t>
-  </si>
-  <si>
     <t>Bakanın</t>
   </si>
   <si>
@@ -1459,29 +1456,40 @@
   </si>
   <si>
     <t>dinçleştiler</t>
+  </si>
+  <si>
+    <t>dist1</t>
+  </si>
+  <si>
+    <t>dist2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1491,1031 +1499,1325 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.71"/>
-    <col customWidth="1" min="2" max="2" width="12.71"/>
-    <col customWidth="1" min="3" max="3" width="11.0"/>
-    <col customWidth="1" min="4" max="4" width="8.29"/>
-    <col customWidth="1" min="5" max="5" width="21.71"/>
-    <col customWidth="1" min="6" max="6" width="9.71"/>
-    <col customWidth="1" min="7" max="7" width="11.71"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B27" s="3" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="C28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="3" t="s">
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D29" s="3" t="s">
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="C30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="3" t="s">
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="D31" s="3" t="s">
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="C32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="3" t="s">
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="D33" s="3" t="s">
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D34" s="3" t="s">
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="D35" s="3" t="s">
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="D36" s="3" t="s">
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="C37" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="D37" s="3" t="s">
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="D38" s="3" t="s">
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="C39" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B39" s="3" t="s">
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="D40" s="3" t="s">
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>481</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.43"/>
-    <col customWidth="1" min="2" max="2" width="10.0"/>
-    <col customWidth="1" min="3" max="3" width="12.43"/>
-    <col customWidth="1" min="4" max="4" width="9.14"/>
-    <col customWidth="1" min="5" max="5" width="7.71"/>
-    <col customWidth="1" min="6" max="6" width="9.29"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2529,10 +2831,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>478</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>479</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2556,425 +2858,428 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="F14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="3" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="F20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="16.71"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2988,413 +3293,413 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="3" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="3" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="3" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="B16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="F19" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="D20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>211</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>